--- a/Docs/Latest/coverage_targets.xlsx
+++ b/Docs/Latest/coverage_targets.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\vc\Docs\Latest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="19140" windowHeight="6888"/>
+    <workbookView xWindow="0" yWindow="130" windowWidth="19140" windowHeight="6890"/>
   </bookViews>
   <sheets>
     <sheet name="mcoverage" sheetId="1" r:id="rId1"/>
@@ -367,26 +372,26 @@
     <t>Zombo</t>
   </si>
   <si>
-    <t>OPV3</t>
-  </si>
-  <si>
-    <t>PCV3</t>
-  </si>
-  <si>
-    <t>TT2</t>
-  </si>
-  <si>
-    <t>PENTA3</t>
-  </si>
-  <si>
-    <t>HPV2</t>
+    <t>HPV</t>
+  </si>
+  <si>
+    <t>OPV</t>
+  </si>
+  <si>
+    <t>PCV</t>
+  </si>
+  <si>
+    <t>PENTA</t>
+  </si>
+  <si>
+    <t>TT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,8 +399,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +420,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -417,15 +435,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,6 +589,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -483,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +675,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,120 +887,121 @@
   <dimension ref="A2:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>463</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
+        <v>315</v>
+      </c>
+      <c r="D6" s="1">
+        <v>410</v>
+      </c>
+      <c r="E6" s="1">
+        <v>410</v>
+      </c>
+      <c r="F6" s="1">
         <v>410.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6" s="1">
         <v>410.33333333333331</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
+        <v>410.33333333333331</v>
+      </c>
+      <c r="I6" s="1">
         <v>2195.4</v>
       </c>
-      <c r="F6" s="1">
-        <v>410.33333333333331</v>
-      </c>
-      <c r="G6" s="1">
-        <v>410</v>
-      </c>
-      <c r="H6" s="1">
-        <v>410</v>
-      </c>
-      <c r="I6" s="1">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>966</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
+        <v>657</v>
+      </c>
+      <c r="D7" s="1">
+        <v>856</v>
+      </c>
+      <c r="E7" s="1">
+        <v>856</v>
+      </c>
+      <c r="F7" s="1">
         <v>856.25</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7" s="1">
         <v>856.33333333333337</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
+        <v>856.33333333333337</v>
+      </c>
+      <c r="I7" s="1">
         <v>4580.2</v>
       </c>
-      <c r="F7" s="1">
-        <v>856.33333333333337</v>
-      </c>
-      <c r="G7" s="1">
-        <v>856</v>
-      </c>
-      <c r="H7" s="1">
-        <v>856</v>
-      </c>
-      <c r="I7" s="1">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>977</v>
       </c>
-      <c r="C8" s="1">
-        <v>866</v>
+      <c r="C8" s="3">
+        <v>664.5</v>
       </c>
       <c r="D8" s="1">
         <v>866</v>
       </c>
       <c r="E8" s="1">
-        <v>4632</v>
+        <v>866</v>
       </c>
       <c r="F8" s="1">
         <v>866</v>
@@ -855,24 +1013,24 @@
         <v>866</v>
       </c>
       <c r="I8" s="1">
-        <v>664.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>976</v>
       </c>
-      <c r="C9" s="1">
-        <v>865</v>
+      <c r="C9" s="3">
+        <v>664</v>
       </c>
       <c r="D9" s="1">
         <v>865</v>
       </c>
       <c r="E9" s="1">
-        <v>4626.8</v>
+        <v>865</v>
       </c>
       <c r="F9" s="1">
         <v>865</v>
@@ -884,53 +1042,53 @@
         <v>865</v>
       </c>
       <c r="I9" s="1">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+        <v>4626.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>631</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
+        <v>429.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>559</v>
+      </c>
+      <c r="E10" s="1">
+        <v>559</v>
+      </c>
+      <c r="F10" s="1">
         <v>559.5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="G10" s="1">
         <v>559.33333333333337</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10" s="1">
+        <v>559.33333333333337</v>
+      </c>
+      <c r="I10" s="1">
         <v>2992.4</v>
       </c>
-      <c r="F10" s="1">
-        <v>559.33333333333337</v>
-      </c>
-      <c r="G10" s="1">
-        <v>559</v>
-      </c>
-      <c r="H10" s="1">
-        <v>559</v>
-      </c>
-      <c r="I10" s="1">
-        <v>429.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>454</v>
       </c>
-      <c r="C11" s="1">
-        <v>402</v>
+      <c r="C11" s="3">
+        <v>308.5</v>
       </c>
       <c r="D11" s="1">
         <v>402</v>
       </c>
       <c r="E11" s="1">
-        <v>2150.6</v>
+        <v>402</v>
       </c>
       <c r="F11" s="1">
         <v>402</v>
@@ -942,24 +1100,24 @@
         <v>402</v>
       </c>
       <c r="I11" s="1">
-        <v>308.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+        <v>2150.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1162</v>
       </c>
-      <c r="C12" s="1">
-        <v>1030</v>
+      <c r="C12" s="3">
+        <v>790.5</v>
       </c>
       <c r="D12" s="1">
         <v>1030</v>
       </c>
       <c r="E12" s="1">
-        <v>5509</v>
+        <v>1030</v>
       </c>
       <c r="F12" s="1">
         <v>1030</v>
@@ -971,82 +1129,82 @@
         <v>1030</v>
       </c>
       <c r="I12" s="1">
-        <v>790.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>801</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
+        <v>544.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>710</v>
+      </c>
+      <c r="E13" s="1">
+        <v>710</v>
+      </c>
+      <c r="F13" s="1">
         <v>709.75</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13" s="1">
         <v>709.66666666666663</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
+        <v>709.66666666666663</v>
+      </c>
+      <c r="I13" s="1">
         <v>3796.2</v>
       </c>
-      <c r="F13" s="1">
-        <v>709.66666666666663</v>
-      </c>
-      <c r="G13" s="1">
-        <v>710</v>
-      </c>
-      <c r="H13" s="1">
-        <v>710</v>
-      </c>
-      <c r="I13" s="1">
-        <v>544.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1581</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
+        <v>1075.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1401</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1401</v>
+      </c>
+      <c r="F14" s="1">
         <v>1401.25</v>
       </c>
-      <c r="D14" s="1">
+      <c r="G14" s="1">
         <v>1401.3333333333333</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
+        <v>1401.3333333333333</v>
+      </c>
+      <c r="I14" s="1">
         <v>7495.6</v>
       </c>
-      <c r="F14" s="1">
-        <v>1401.3333333333333</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1401</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1401</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1075.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>3353</v>
       </c>
-      <c r="C15" s="1">
-        <v>2973</v>
+      <c r="C15" s="3">
+        <v>2281.5</v>
       </c>
       <c r="D15" s="1">
         <v>2973</v>
       </c>
       <c r="E15" s="1">
-        <v>15902.6</v>
+        <v>2973</v>
       </c>
       <c r="F15" s="1">
         <v>2973</v>
@@ -1058,53 +1216,53 @@
         <v>2973</v>
       </c>
       <c r="I15" s="1">
-        <v>2281.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+        <v>15902.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>890</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
+        <v>605.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>789</v>
+      </c>
+      <c r="E16" s="1">
+        <v>789</v>
+      </c>
+      <c r="F16" s="1">
         <v>789.25</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16" s="1">
         <v>789.33333333333337</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
+        <v>789.33333333333337</v>
+      </c>
+      <c r="I16" s="1">
         <v>4221.2</v>
       </c>
-      <c r="F16" s="1">
-        <v>789.33333333333337</v>
-      </c>
-      <c r="G16" s="1">
-        <v>789</v>
-      </c>
-      <c r="H16" s="1">
-        <v>789</v>
-      </c>
-      <c r="I16" s="1">
-        <v>605.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>901</v>
       </c>
-      <c r="C17" s="1">
-        <v>799</v>
+      <c r="C17" s="3">
+        <v>613</v>
       </c>
       <c r="D17" s="1">
         <v>799</v>
       </c>
       <c r="E17" s="1">
-        <v>4273.6000000000004</v>
+        <v>799</v>
       </c>
       <c r="F17" s="1">
         <v>799</v>
@@ -1116,53 +1274,53 @@
         <v>799</v>
       </c>
       <c r="I17" s="1">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+        <v>4273.6000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1642</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
+        <v>1117</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1456</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1456</v>
+      </c>
+      <c r="F18" s="1">
         <v>1455.75</v>
       </c>
-      <c r="D18" s="1">
+      <c r="G18" s="1">
         <v>1455.6666666666667</v>
       </c>
-      <c r="E18" s="1">
+      <c r="H18" s="1">
+        <v>1455.6666666666667</v>
+      </c>
+      <c r="I18" s="1">
         <v>7786.2</v>
       </c>
-      <c r="F18" s="1">
-        <v>1455.6666666666667</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1456</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1456</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>518</v>
       </c>
-      <c r="C19" s="1">
-        <v>459</v>
+      <c r="C19" s="3">
+        <v>352</v>
       </c>
       <c r="D19" s="1">
         <v>459</v>
       </c>
       <c r="E19" s="1">
-        <v>2454.8000000000002</v>
+        <v>459</v>
       </c>
       <c r="F19" s="1">
         <v>459</v>
@@ -1174,53 +1332,53 @@
         <v>459</v>
       </c>
       <c r="I19" s="1">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+        <v>2454.8000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1813</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
+        <v>1233.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1607</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1607</v>
+      </c>
+      <c r="F20" s="1">
         <v>1607.25</v>
       </c>
-      <c r="D20" s="1">
+      <c r="G20" s="1">
         <v>1607.3333333333333</v>
       </c>
-      <c r="E20" s="1">
+      <c r="H20" s="1">
+        <v>1607.3333333333333</v>
+      </c>
+      <c r="I20" s="1">
         <v>8596.6</v>
       </c>
-      <c r="F20" s="1">
-        <v>1607.3333333333333</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1607</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1607</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1233.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>873</v>
       </c>
-      <c r="C21" s="1">
-        <v>774</v>
+      <c r="C21" s="3">
+        <v>594</v>
       </c>
       <c r="D21" s="1">
         <v>774</v>
       </c>
       <c r="E21" s="1">
-        <v>4140</v>
+        <v>774</v>
       </c>
       <c r="F21" s="1">
         <v>774</v>
@@ -1232,140 +1390,140 @@
         <v>774</v>
       </c>
       <c r="I21" s="1">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>649</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
+        <v>441.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>576</v>
+      </c>
+      <c r="E22" s="1">
+        <v>576</v>
+      </c>
+      <c r="F22" s="1">
         <v>575.5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="G22" s="1">
         <v>575.66666666666663</v>
       </c>
-      <c r="E22" s="1">
+      <c r="H22" s="1">
+        <v>575.66666666666663</v>
+      </c>
+      <c r="I22" s="1">
         <v>3078.8</v>
       </c>
-      <c r="F22" s="1">
-        <v>575.66666666666663</v>
-      </c>
-      <c r="G22" s="1">
-        <v>576</v>
-      </c>
-      <c r="H22" s="1">
-        <v>576</v>
-      </c>
-      <c r="I22" s="1">
-        <v>441.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>383</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
+        <v>260.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>340</v>
+      </c>
+      <c r="E23" s="1">
+        <v>340</v>
+      </c>
+      <c r="F23" s="1">
         <v>339.75</v>
       </c>
-      <c r="D23" s="1">
+      <c r="G23" s="1">
         <v>339.66666666666669</v>
       </c>
-      <c r="E23" s="1">
+      <c r="H23" s="1">
+        <v>339.66666666666669</v>
+      </c>
+      <c r="I23" s="1">
         <v>1817</v>
       </c>
-      <c r="F23" s="1">
-        <v>339.66666666666669</v>
-      </c>
-      <c r="G23" s="1">
-        <v>340</v>
-      </c>
-      <c r="H23" s="1">
-        <v>340</v>
-      </c>
-      <c r="I23" s="1">
-        <v>260.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>748</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
+        <v>509</v>
+      </c>
+      <c r="D24" s="1">
+        <v>663</v>
+      </c>
+      <c r="E24" s="1">
+        <v>663</v>
+      </c>
+      <c r="F24" s="1">
         <v>663.5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="G24" s="1">
         <v>663.33333333333337</v>
       </c>
-      <c r="E24" s="1">
+      <c r="H24" s="1">
+        <v>663.33333333333337</v>
+      </c>
+      <c r="I24" s="1">
         <v>3548.4</v>
       </c>
-      <c r="F24" s="1">
-        <v>663.33333333333337</v>
-      </c>
-      <c r="G24" s="1">
-        <v>663</v>
-      </c>
-      <c r="H24" s="1">
-        <v>663</v>
-      </c>
-      <c r="I24" s="1">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>485</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
+        <v>330</v>
+      </c>
+      <c r="D25" s="1">
+        <v>430</v>
+      </c>
+      <c r="E25" s="1">
+        <v>430</v>
+      </c>
+      <c r="F25" s="1">
         <v>430.25</v>
       </c>
-      <c r="D25" s="1">
+      <c r="G25" s="1">
         <v>430.33333333333331</v>
       </c>
-      <c r="E25" s="1">
+      <c r="H25" s="1">
+        <v>430.33333333333331</v>
+      </c>
+      <c r="I25" s="1">
         <v>2301</v>
       </c>
-      <c r="F25" s="1">
-        <v>430.33333333333331</v>
-      </c>
-      <c r="G25" s="1">
-        <v>430</v>
-      </c>
-      <c r="H25" s="1">
-        <v>430</v>
-      </c>
-      <c r="I25" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>962</v>
       </c>
-      <c r="C26" s="1">
-        <v>853</v>
+      <c r="C26" s="3">
+        <v>654.5</v>
       </c>
       <c r="D26" s="1">
         <v>853</v>
       </c>
       <c r="E26" s="1">
-        <v>4562.6000000000004</v>
+        <v>853</v>
       </c>
       <c r="F26" s="1">
         <v>853</v>
@@ -1377,85 +1535,85 @@
         <v>853</v>
       </c>
       <c r="I26" s="1">
-        <v>654.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+        <v>4562.6000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>1005</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
+        <v>684</v>
+      </c>
+      <c r="D27" s="1">
+        <v>891</v>
+      </c>
+      <c r="E27" s="1">
+        <v>891</v>
+      </c>
+      <c r="F27" s="1">
         <v>891.25</v>
       </c>
-      <c r="D27" s="1">
+      <c r="G27" s="1">
         <v>891.33333333333337</v>
       </c>
-      <c r="E27" s="1">
+      <c r="H27" s="1">
+        <v>891.33333333333337</v>
+      </c>
+      <c r="I27" s="1">
         <v>4767</v>
       </c>
-      <c r="F27" s="1">
-        <v>891.33333333333337</v>
-      </c>
-      <c r="G27" s="1">
-        <v>891</v>
-      </c>
-      <c r="H27" s="1">
-        <v>891</v>
-      </c>
-      <c r="I27" s="1">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1388</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
+        <v>944.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1230</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1230</v>
+      </c>
+      <c r="F28" s="1">
         <v>1230.5</v>
       </c>
-      <c r="D28" s="1">
+      <c r="G28" s="1">
         <v>1230.3333333333333</v>
       </c>
-      <c r="E28" s="1">
+      <c r="H28" s="1">
+        <v>1230.3333333333333</v>
+      </c>
+      <c r="I28" s="1">
         <v>6581.4</v>
       </c>
-      <c r="F28" s="1">
-        <v>1230.3333333333333</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1230</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1230</v>
-      </c>
-      <c r="I28" s="1">
-        <v>944.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1047</v>
       </c>
-      <c r="C29" s="1">
-        <v>928.25</v>
+      <c r="C29" s="3">
+        <v>712.5</v>
       </c>
       <c r="D29" s="1">
         <v>928</v>
       </c>
       <c r="E29" s="1">
-        <v>4964.6000000000004</v>
+        <v>928</v>
       </c>
       <c r="F29" s="1">
-        <v>928</v>
+        <v>928.25</v>
       </c>
       <c r="G29" s="1">
         <v>928</v>
@@ -1464,85 +1622,85 @@
         <v>928</v>
       </c>
       <c r="I29" s="1">
-        <v>712.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+        <v>4964.6000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>432</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
+        <v>294</v>
+      </c>
+      <c r="D30" s="1">
+        <v>383</v>
+      </c>
+      <c r="E30" s="1">
+        <v>383</v>
+      </c>
+      <c r="F30" s="1">
         <v>383.25</v>
       </c>
-      <c r="D30" s="1">
+      <c r="G30" s="1">
         <v>383.33333333333331</v>
       </c>
-      <c r="E30" s="1">
+      <c r="H30" s="1">
+        <v>383.33333333333331</v>
+      </c>
+      <c r="I30" s="1">
         <v>2050.4</v>
       </c>
-      <c r="F30" s="1">
-        <v>383.33333333333331</v>
-      </c>
-      <c r="G30" s="1">
-        <v>383</v>
-      </c>
-      <c r="H30" s="1">
-        <v>383</v>
-      </c>
-      <c r="I30" s="1">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>385</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
+        <v>262.5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>342</v>
+      </c>
+      <c r="E31" s="1">
+        <v>342</v>
+      </c>
+      <c r="F31" s="1">
         <v>341.75</v>
       </c>
-      <c r="D31" s="1">
+      <c r="G31" s="1">
         <v>341.66666666666669</v>
       </c>
-      <c r="E31" s="1">
+      <c r="H31" s="1">
+        <v>341.66666666666669</v>
+      </c>
+      <c r="I31" s="1">
         <v>1827.8</v>
       </c>
-      <c r="F31" s="1">
-        <v>341.66666666666669</v>
-      </c>
-      <c r="G31" s="1">
-        <v>342</v>
-      </c>
-      <c r="H31" s="1">
-        <v>342</v>
-      </c>
-      <c r="I31" s="1">
-        <v>262.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1385</v>
       </c>
-      <c r="C32" s="1">
-        <v>1228.25</v>
+      <c r="C32" s="3">
+        <v>942.5</v>
       </c>
       <c r="D32" s="1">
         <v>1228</v>
       </c>
       <c r="E32" s="1">
-        <v>6569.2</v>
+        <v>1228</v>
       </c>
       <c r="F32" s="1">
-        <v>1228</v>
+        <v>1228.25</v>
       </c>
       <c r="G32" s="1">
         <v>1228</v>
@@ -1551,24 +1709,24 @@
         <v>1228</v>
       </c>
       <c r="I32" s="1">
-        <v>942.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+        <v>6569.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>785</v>
       </c>
-      <c r="C33" s="1">
-        <v>696</v>
+      <c r="C33" s="3">
+        <v>534</v>
       </c>
       <c r="D33" s="1">
         <v>696</v>
       </c>
       <c r="E33" s="1">
-        <v>3723</v>
+        <v>696</v>
       </c>
       <c r="F33" s="1">
         <v>696</v>
@@ -1580,24 +1738,24 @@
         <v>696</v>
       </c>
       <c r="I33" s="1">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>686</v>
       </c>
-      <c r="C34" s="1">
-        <v>608</v>
+      <c r="C34" s="3">
+        <v>466.5</v>
       </c>
       <c r="D34" s="1">
         <v>608</v>
       </c>
       <c r="E34" s="1">
-        <v>3251.8</v>
+        <v>608</v>
       </c>
       <c r="F34" s="1">
         <v>608</v>
@@ -1609,82 +1767,82 @@
         <v>608</v>
       </c>
       <c r="I34" s="1">
-        <v>466.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+        <v>3251.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>1871</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
+        <v>1273</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1659</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1659</v>
+      </c>
+      <c r="F35" s="1">
         <v>1658.75</v>
       </c>
-      <c r="D35" s="1">
+      <c r="G35" s="1">
         <v>1658.6666666666667</v>
       </c>
-      <c r="E35" s="1">
+      <c r="H35" s="1">
+        <v>1658.6666666666667</v>
+      </c>
+      <c r="I35" s="1">
         <v>8872.6</v>
       </c>
-      <c r="F35" s="1">
-        <v>1658.6666666666667</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1659</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1659</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>2457</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
+        <v>1671.5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2178</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2178</v>
+      </c>
+      <c r="F36" s="1">
         <v>2178.25</v>
       </c>
-      <c r="D36" s="1">
+      <c r="G36" s="1">
         <v>2178.3333333333335</v>
       </c>
-      <c r="E36" s="1">
+      <c r="H36" s="1">
+        <v>2178.3333333333335</v>
+      </c>
+      <c r="I36" s="1">
         <v>11651</v>
       </c>
-      <c r="F36" s="1">
-        <v>2178.3333333333335</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2178</v>
-      </c>
-      <c r="H36" s="1">
-        <v>2178</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1671.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>1070</v>
       </c>
-      <c r="C37" s="1">
-        <v>949</v>
+      <c r="C37" s="3">
+        <v>728.5</v>
       </c>
       <c r="D37" s="1">
         <v>949</v>
       </c>
       <c r="E37" s="1">
-        <v>5075.8</v>
+        <v>949</v>
       </c>
       <c r="F37" s="1">
         <v>949</v>
@@ -1696,53 +1854,53 @@
         <v>949</v>
       </c>
       <c r="I37" s="1">
-        <v>728.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+        <v>5075.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>2162</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
+        <v>1471</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1917</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1917</v>
+      </c>
+      <c r="F38" s="1">
         <v>1916.75</v>
       </c>
-      <c r="D38" s="1">
+      <c r="G38" s="1">
         <v>1916.6666666666667</v>
       </c>
-      <c r="E38" s="1">
+      <c r="H38" s="1">
+        <v>1916.6666666666667</v>
+      </c>
+      <c r="I38" s="1">
         <v>10252.200000000001</v>
       </c>
-      <c r="F38" s="1">
-        <v>1916.6666666666667</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1917</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1917</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>2085</v>
       </c>
-      <c r="C39" s="1">
-        <v>1849</v>
+      <c r="C39" s="3">
+        <v>1419</v>
       </c>
       <c r="D39" s="1">
         <v>1849</v>
       </c>
       <c r="E39" s="1">
-        <v>9889.6</v>
+        <v>1849</v>
       </c>
       <c r="F39" s="1">
         <v>1849</v>
@@ -1754,82 +1912,82 @@
         <v>1849</v>
       </c>
       <c r="I39" s="1">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+        <v>9889.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
+        <v>1375</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1791</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1791</v>
+      </c>
+      <c r="F40" s="1">
         <v>1791.5</v>
       </c>
-      <c r="D40" s="1">
+      <c r="G40" s="1">
         <v>1791.3333333333333</v>
       </c>
-      <c r="E40" s="1">
+      <c r="H40" s="1">
+        <v>1791.3333333333333</v>
+      </c>
+      <c r="I40" s="1">
         <v>9582.2000000000007</v>
       </c>
-      <c r="F40" s="1">
-        <v>1791.3333333333333</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1791</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1791</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>720</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
+        <v>490</v>
+      </c>
+      <c r="D41" s="1">
+        <v>638</v>
+      </c>
+      <c r="E41" s="1">
+        <v>638</v>
+      </c>
+      <c r="F41" s="1">
         <v>638.25</v>
       </c>
-      <c r="D41" s="1">
+      <c r="G41" s="1">
         <v>638.33333333333337</v>
       </c>
-      <c r="E41" s="1">
+      <c r="H41" s="1">
+        <v>638.33333333333337</v>
+      </c>
+      <c r="I41" s="1">
         <v>3413.6</v>
       </c>
-      <c r="F41" s="1">
-        <v>638.33333333333337</v>
-      </c>
-      <c r="G41" s="1">
-        <v>638</v>
-      </c>
-      <c r="H41" s="1">
-        <v>638</v>
-      </c>
-      <c r="I41" s="1">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>2265</v>
       </c>
-      <c r="C42" s="1">
-        <v>2008</v>
+      <c r="C42" s="3">
+        <v>1541</v>
       </c>
       <c r="D42" s="1">
         <v>2008</v>
       </c>
       <c r="E42" s="1">
-        <v>10741</v>
+        <v>2008</v>
       </c>
       <c r="F42" s="1">
         <v>2008</v>
@@ -1841,111 +1999,111 @@
         <v>2008</v>
       </c>
       <c r="I42" s="1">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+        <v>10741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>2012</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
+        <v>1369</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1784</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1784</v>
+      </c>
+      <c r="F43" s="1">
         <v>1783.75</v>
       </c>
-      <c r="D43" s="1">
+      <c r="G43" s="1">
         <v>1783.6666666666667</v>
       </c>
-      <c r="E43" s="1">
+      <c r="H43" s="1">
+        <v>1783.6666666666667</v>
+      </c>
+      <c r="I43" s="1">
         <v>9541.4</v>
       </c>
-      <c r="F43" s="1">
-        <v>1783.6666666666667</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1784</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1784</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>922</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
+        <v>627.5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>817</v>
+      </c>
+      <c r="E44" s="1">
+        <v>817</v>
+      </c>
+      <c r="F44" s="1">
         <v>817.5</v>
       </c>
-      <c r="D44" s="1">
+      <c r="G44" s="1">
         <v>817.33333333333337</v>
       </c>
-      <c r="E44" s="1">
+      <c r="H44" s="1">
+        <v>817.33333333333337</v>
+      </c>
+      <c r="I44" s="1">
         <v>4372.3999999999996</v>
       </c>
-      <c r="F44" s="1">
-        <v>817.33333333333337</v>
-      </c>
-      <c r="G44" s="1">
-        <v>817</v>
-      </c>
-      <c r="H44" s="1">
-        <v>817</v>
-      </c>
-      <c r="I44" s="1">
-        <v>627.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>233</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
+        <v>158.5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>206</v>
+      </c>
+      <c r="E45" s="1">
+        <v>206</v>
+      </c>
+      <c r="F45" s="1">
         <v>206.5</v>
       </c>
-      <c r="D45" s="1">
+      <c r="G45" s="1">
         <v>206.33333333333334</v>
       </c>
-      <c r="E45" s="1">
+      <c r="H45" s="1">
+        <v>206.33333333333334</v>
+      </c>
+      <c r="I45" s="1">
         <v>1104</v>
       </c>
-      <c r="F45" s="1">
-        <v>206.33333333333334</v>
-      </c>
-      <c r="G45" s="1">
-        <v>206</v>
-      </c>
-      <c r="H45" s="1">
-        <v>206</v>
-      </c>
-      <c r="I45" s="1">
-        <v>158.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>1013</v>
       </c>
-      <c r="C46" s="1">
-        <v>898</v>
+      <c r="C46" s="3">
+        <v>689</v>
       </c>
       <c r="D46" s="1">
         <v>898</v>
       </c>
       <c r="E46" s="1">
-        <v>4802.8</v>
+        <v>898</v>
       </c>
       <c r="F46" s="1">
         <v>898</v>
@@ -1957,172 +2115,172 @@
         <v>898</v>
       </c>
       <c r="I46" s="1">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+        <v>4802.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>786</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
+        <v>534.5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>697</v>
+      </c>
+      <c r="E47" s="1">
+        <v>697</v>
+      </c>
+      <c r="F47" s="1">
         <v>696.5</v>
       </c>
-      <c r="D47" s="1">
+      <c r="G47" s="1">
         <v>696.66666666666663</v>
       </c>
-      <c r="E47" s="1">
+      <c r="H47" s="1">
+        <v>696.66666666666663</v>
+      </c>
+      <c r="I47" s="1">
         <v>3725.8</v>
       </c>
-      <c r="F47" s="1">
-        <v>696.66666666666663</v>
-      </c>
-      <c r="G47" s="1">
-        <v>697</v>
-      </c>
-      <c r="H47" s="1">
-        <v>697</v>
-      </c>
-      <c r="I47" s="1">
-        <v>534.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>6462</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
+        <v>4397</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5729</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5729</v>
+      </c>
+      <c r="F48" s="1">
         <v>5729.25</v>
       </c>
-      <c r="D48" s="1">
+      <c r="G48" s="1">
         <v>5729.333333333333</v>
       </c>
-      <c r="E48" s="1">
+      <c r="H48" s="1">
+        <v>5729.333333333333</v>
+      </c>
+      <c r="I48" s="1">
         <v>30644.799999999999</v>
       </c>
-      <c r="F48" s="1">
-        <v>5729.333333333333</v>
-      </c>
-      <c r="G48" s="1">
-        <v>5729</v>
-      </c>
-      <c r="H48" s="1">
-        <v>5729</v>
-      </c>
-      <c r="I48" s="1">
-        <v>4397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>2085</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
+        <v>1419</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1849</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1849</v>
+      </c>
+      <c r="F49" s="1">
         <v>1848.75</v>
       </c>
-      <c r="D49" s="1">
+      <c r="G49" s="1">
         <v>1848.6666666666667</v>
       </c>
-      <c r="E49" s="1">
+      <c r="H49" s="1">
+        <v>1848.6666666666667</v>
+      </c>
+      <c r="I49" s="1">
         <v>9888.7999999999993</v>
       </c>
-      <c r="F49" s="1">
-        <v>1848.6666666666667</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1849</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1849</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>1777</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
+        <v>1209</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1576</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1576</v>
+      </c>
+      <c r="F50" s="1">
         <v>1575.5</v>
       </c>
-      <c r="D50" s="1">
+      <c r="G50" s="1">
         <v>1575.6666666666667</v>
       </c>
-      <c r="E50" s="1">
+      <c r="H50" s="1">
+        <v>1575.6666666666667</v>
+      </c>
+      <c r="I50" s="1">
         <v>8427.4</v>
       </c>
-      <c r="F50" s="1">
-        <v>1575.6666666666667</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1576</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1576</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>1081</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
+        <v>735.5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>959</v>
+      </c>
+      <c r="E51" s="1">
+        <v>959</v>
+      </c>
+      <c r="F51" s="1">
         <v>958.5</v>
       </c>
-      <c r="D51" s="1">
+      <c r="G51" s="1">
         <v>958.66666666666663</v>
       </c>
-      <c r="E51" s="1">
+      <c r="H51" s="1">
+        <v>958.66666666666663</v>
+      </c>
+      <c r="I51" s="1">
         <v>5127</v>
       </c>
-      <c r="F51" s="1">
-        <v>958.66666666666663</v>
-      </c>
-      <c r="G51" s="1">
-        <v>959</v>
-      </c>
-      <c r="H51" s="1">
-        <v>959</v>
-      </c>
-      <c r="I51" s="1">
-        <v>735.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>451</v>
       </c>
-      <c r="C52" s="1">
-        <v>399.75</v>
+      <c r="C52" s="3">
+        <v>307</v>
       </c>
       <c r="D52" s="1">
         <v>400</v>
       </c>
       <c r="E52" s="1">
-        <v>2138.8000000000002</v>
+        <v>400</v>
       </c>
       <c r="F52" s="1">
-        <v>400</v>
+        <v>399.75</v>
       </c>
       <c r="G52" s="1">
         <v>400</v>
@@ -2131,24 +2289,24 @@
         <v>400</v>
       </c>
       <c r="I52" s="1">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+        <v>2138.8000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>2980</v>
       </c>
-      <c r="C53" s="1">
-        <v>2642</v>
+      <c r="C53" s="3">
+        <v>2027.5</v>
       </c>
       <c r="D53" s="1">
         <v>2642</v>
       </c>
       <c r="E53" s="1">
-        <v>14132</v>
+        <v>2642</v>
       </c>
       <c r="F53" s="1">
         <v>2642</v>
@@ -2160,24 +2318,24 @@
         <v>2642</v>
       </c>
       <c r="I53" s="1">
-        <v>2027.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+        <v>14132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>713</v>
       </c>
-      <c r="C54" s="1">
-        <v>632</v>
+      <c r="C54" s="3">
+        <v>485</v>
       </c>
       <c r="D54" s="1">
         <v>632</v>
       </c>
       <c r="E54" s="1">
-        <v>3380.2</v>
+        <v>632</v>
       </c>
       <c r="F54" s="1">
         <v>632</v>
@@ -2189,111 +2347,111 @@
         <v>632</v>
       </c>
       <c r="I54" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+        <v>3380.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>1578</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
+        <v>1074</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1399</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1399</v>
+      </c>
+      <c r="F55" s="1">
         <v>1399.25</v>
       </c>
-      <c r="D55" s="1">
+      <c r="G55" s="1">
         <v>1399.3333333333333</v>
       </c>
-      <c r="E55" s="1">
+      <c r="H55" s="1">
+        <v>1399.3333333333333</v>
+      </c>
+      <c r="I55" s="1">
         <v>7484.2</v>
       </c>
-      <c r="F55" s="1">
-        <v>1399.3333333333333</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1399</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>3366</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
+        <v>2290.5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2985</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2985</v>
+      </c>
+      <c r="F56" s="1">
         <v>2984.5</v>
       </c>
-      <c r="D56" s="1">
+      <c r="G56" s="1">
         <v>2984.6666666666665</v>
       </c>
-      <c r="E56" s="1">
+      <c r="H56" s="1">
+        <v>2984.6666666666665</v>
+      </c>
+      <c r="I56" s="1">
         <v>15964</v>
       </c>
-      <c r="F56" s="1">
-        <v>2984.6666666666665</v>
-      </c>
-      <c r="G56" s="1">
-        <v>2985</v>
-      </c>
-      <c r="H56" s="1">
-        <v>2985</v>
-      </c>
-      <c r="I56" s="1">
-        <v>2290.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>636</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
+        <v>432.5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>563</v>
+      </c>
+      <c r="E57" s="1">
+        <v>563</v>
+      </c>
+      <c r="F57" s="1">
         <v>563.5</v>
       </c>
-      <c r="D57" s="1">
+      <c r="G57" s="1">
         <v>563.33333333333337</v>
       </c>
-      <c r="E57" s="1">
+      <c r="H57" s="1">
+        <v>563.33333333333337</v>
+      </c>
+      <c r="I57" s="1">
         <v>3013.8</v>
       </c>
-      <c r="F57" s="1">
-        <v>563.33333333333337</v>
-      </c>
-      <c r="G57" s="1">
-        <v>563</v>
-      </c>
-      <c r="H57" s="1">
-        <v>563</v>
-      </c>
-      <c r="I57" s="1">
-        <v>432.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>866</v>
       </c>
-      <c r="C58" s="1">
-        <v>768</v>
+      <c r="C58" s="3">
+        <v>589.5</v>
       </c>
       <c r="D58" s="1">
         <v>768</v>
       </c>
       <c r="E58" s="1">
-        <v>4108.2</v>
+        <v>768</v>
       </c>
       <c r="F58" s="1">
         <v>768</v>
@@ -2305,53 +2463,53 @@
         <v>768</v>
       </c>
       <c r="I58" s="1">
-        <v>589.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+        <v>4108.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>1407</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
+        <v>957</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1247</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1247</v>
+      </c>
+      <c r="F59" s="1">
         <v>1247.25</v>
       </c>
-      <c r="D59" s="1">
+      <c r="G59" s="1">
         <v>1247.3333333333333</v>
       </c>
-      <c r="E59" s="1">
+      <c r="H59" s="1">
+        <v>1247.3333333333333</v>
+      </c>
+      <c r="I59" s="1">
         <v>6671</v>
       </c>
-      <c r="F59" s="1">
-        <v>1247.3333333333333</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1247</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1247</v>
-      </c>
-      <c r="I59" s="1">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>1141</v>
       </c>
-      <c r="C60" s="1">
-        <v>1012</v>
+      <c r="C60" s="3">
+        <v>776.5</v>
       </c>
       <c r="D60" s="1">
         <v>1012</v>
       </c>
       <c r="E60" s="1">
-        <v>5412.8</v>
+        <v>1012</v>
       </c>
       <c r="F60" s="1">
         <v>1012</v>
@@ -2363,24 +2521,24 @@
         <v>1012</v>
       </c>
       <c r="I60" s="1">
-        <v>776.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+        <v>5412.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>1208</v>
       </c>
-      <c r="C61" s="1">
-        <v>1071</v>
+      <c r="C61" s="3">
+        <v>822</v>
       </c>
       <c r="D61" s="1">
         <v>1071</v>
       </c>
       <c r="E61" s="1">
-        <v>5728.2</v>
+        <v>1071</v>
       </c>
       <c r="F61" s="1">
         <v>1071</v>
@@ -2392,53 +2550,53 @@
         <v>1071</v>
       </c>
       <c r="I61" s="1">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+        <v>5728.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>875</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
+        <v>595.5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>776</v>
+      </c>
+      <c r="E62" s="1">
+        <v>776</v>
+      </c>
+      <c r="F62" s="1">
         <v>775.75</v>
       </c>
-      <c r="D62" s="1">
+      <c r="G62" s="1">
         <v>775.66666666666663</v>
       </c>
-      <c r="E62" s="1">
+      <c r="H62" s="1">
+        <v>775.66666666666663</v>
+      </c>
+      <c r="I62" s="1">
         <v>4149</v>
       </c>
-      <c r="F62" s="1">
-        <v>775.66666666666663</v>
-      </c>
-      <c r="G62" s="1">
-        <v>776</v>
-      </c>
-      <c r="H62" s="1">
-        <v>776</v>
-      </c>
-      <c r="I62" s="1">
-        <v>595.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>885</v>
       </c>
-      <c r="C63" s="1">
-        <v>785</v>
+      <c r="C63" s="3">
+        <v>602.5</v>
       </c>
       <c r="D63" s="1">
         <v>785</v>
       </c>
       <c r="E63" s="1">
-        <v>4198.8</v>
+        <v>785</v>
       </c>
       <c r="F63" s="1">
         <v>785</v>
@@ -2450,111 +2608,111 @@
         <v>785</v>
       </c>
       <c r="I63" s="1">
-        <v>602.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+        <v>4198.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>1026</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
+        <v>698</v>
+      </c>
+      <c r="D64" s="1">
+        <v>910</v>
+      </c>
+      <c r="E64" s="1">
+        <v>910</v>
+      </c>
+      <c r="F64" s="1">
         <v>909.75</v>
       </c>
-      <c r="D64" s="1">
+      <c r="G64" s="1">
         <v>909.66666666666663</v>
       </c>
-      <c r="E64" s="1">
+      <c r="H64" s="1">
+        <v>909.66666666666663</v>
+      </c>
+      <c r="I64" s="1">
         <v>4866.3999999999996</v>
       </c>
-      <c r="F64" s="1">
-        <v>909.66666666666663</v>
-      </c>
-      <c r="G64" s="1">
-        <v>910</v>
-      </c>
-      <c r="H64" s="1">
-        <v>910</v>
-      </c>
-      <c r="I64" s="1">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>776</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
+        <v>528</v>
+      </c>
+      <c r="D65" s="1">
+        <v>688</v>
+      </c>
+      <c r="E65" s="1">
+        <v>688</v>
+      </c>
+      <c r="F65" s="1">
         <v>688.25</v>
       </c>
-      <c r="D65" s="1">
+      <c r="G65" s="1">
         <v>688.33333333333337</v>
       </c>
-      <c r="E65" s="1">
+      <c r="H65" s="1">
+        <v>688.33333333333337</v>
+      </c>
+      <c r="I65" s="1">
         <v>3681.4</v>
       </c>
-      <c r="F65" s="1">
-        <v>688.33333333333337</v>
-      </c>
-      <c r="G65" s="1">
-        <v>688</v>
-      </c>
-      <c r="H65" s="1">
-        <v>688</v>
-      </c>
-      <c r="I65" s="1">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>1026</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
+        <v>698</v>
+      </c>
+      <c r="D66" s="1">
+        <v>910</v>
+      </c>
+      <c r="E66" s="1">
+        <v>910</v>
+      </c>
+      <c r="F66" s="1">
         <v>909.5</v>
       </c>
-      <c r="D66" s="1">
+      <c r="G66" s="1">
         <v>909.66666666666663</v>
       </c>
-      <c r="E66" s="1">
+      <c r="H66" s="1">
+        <v>909.66666666666663</v>
+      </c>
+      <c r="I66" s="1">
         <v>4865.2</v>
       </c>
-      <c r="F66" s="1">
-        <v>909.66666666666663</v>
-      </c>
-      <c r="G66" s="1">
-        <v>910</v>
-      </c>
-      <c r="H66" s="1">
-        <v>910</v>
-      </c>
-      <c r="I66" s="1">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>402</v>
       </c>
-      <c r="C67" s="1">
-        <v>356</v>
+      <c r="C67" s="3">
+        <v>273.5</v>
       </c>
       <c r="D67" s="1">
         <v>356</v>
       </c>
       <c r="E67" s="1">
-        <v>1904.6</v>
+        <v>356</v>
       </c>
       <c r="F67" s="1">
         <v>356</v>
@@ -2566,82 +2724,82 @@
         <v>356</v>
       </c>
       <c r="I67" s="1">
-        <v>273.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+        <v>1904.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>921</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
+        <v>626.5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>816</v>
+      </c>
+      <c r="E68" s="1">
+        <v>816</v>
+      </c>
+      <c r="F68" s="1">
         <v>816.25</v>
       </c>
-      <c r="D68" s="1">
+      <c r="G68" s="1">
         <v>816.33333333333337</v>
       </c>
-      <c r="E68" s="1">
+      <c r="H68" s="1">
+        <v>816.33333333333337</v>
+      </c>
+      <c r="I68" s="1">
         <v>4365.6000000000004</v>
       </c>
-      <c r="F68" s="1">
-        <v>816.33333333333337</v>
-      </c>
-      <c r="G68" s="1">
-        <v>816</v>
-      </c>
-      <c r="H68" s="1">
-        <v>816</v>
-      </c>
-      <c r="I68" s="1">
-        <v>626.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>1208</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="3">
+        <v>821.5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1071</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1071</v>
+      </c>
+      <c r="F69" s="1">
         <v>1070.75</v>
       </c>
-      <c r="D69" s="1">
+      <c r="G69" s="1">
         <v>1070.6666666666667</v>
       </c>
-      <c r="E69" s="1">
+      <c r="H69" s="1">
+        <v>1070.6666666666667</v>
+      </c>
+      <c r="I69" s="1">
         <v>5726.8</v>
       </c>
-      <c r="F69" s="1">
-        <v>1070.6666666666667</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1071</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1071</v>
-      </c>
-      <c r="I69" s="1">
-        <v>821.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>1810</v>
       </c>
-      <c r="C70" s="1">
-        <v>1605</v>
+      <c r="C70" s="3">
+        <v>1232</v>
       </c>
       <c r="D70" s="1">
         <v>1605</v>
       </c>
       <c r="E70" s="1">
-        <v>8585</v>
+        <v>1605</v>
       </c>
       <c r="F70" s="1">
         <v>1605</v>
@@ -2653,27 +2811,27 @@
         <v>1605</v>
       </c>
       <c r="I70" s="1">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+        <v>8585</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>576</v>
       </c>
-      <c r="C71" s="1">
-        <v>510.75</v>
+      <c r="C71" s="3">
+        <v>392</v>
       </c>
       <c r="D71" s="1">
         <v>511</v>
       </c>
       <c r="E71" s="1">
-        <v>2732.4</v>
+        <v>511</v>
       </c>
       <c r="F71" s="1">
-        <v>511</v>
+        <v>510.75</v>
       </c>
       <c r="G71" s="1">
         <v>511</v>
@@ -2682,56 +2840,56 @@
         <v>511</v>
       </c>
       <c r="I71" s="1">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+        <v>2732.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>1750</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
+        <v>1190.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1551</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1551</v>
+      </c>
+      <c r="F72" s="1">
         <v>1551.25</v>
       </c>
-      <c r="D72" s="1">
+      <c r="G72" s="1">
         <v>1551.3333333333333</v>
       </c>
-      <c r="E72" s="1">
+      <c r="H72" s="1">
+        <v>1551.3333333333333</v>
+      </c>
+      <c r="I72" s="1">
         <v>8297.2000000000007</v>
       </c>
-      <c r="F72" s="1">
-        <v>1551.3333333333333</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1551</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1551</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1190.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>1021</v>
       </c>
-      <c r="C73" s="1">
-        <v>904.75</v>
+      <c r="C73" s="3">
+        <v>694.5</v>
       </c>
       <c r="D73" s="1">
         <v>905</v>
       </c>
       <c r="E73" s="1">
-        <v>4839.8</v>
+        <v>905</v>
       </c>
       <c r="F73" s="1">
-        <v>905</v>
+        <v>904.75</v>
       </c>
       <c r="G73" s="1">
         <v>905</v>
@@ -2740,27 +2898,27 @@
         <v>905</v>
       </c>
       <c r="I73" s="1">
-        <v>694.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+        <v>4839.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>1959</v>
       </c>
-      <c r="C74" s="1">
-        <v>1737.25</v>
+      <c r="C74" s="3">
+        <v>1333</v>
       </c>
       <c r="D74" s="1">
         <v>1737</v>
       </c>
       <c r="E74" s="1">
-        <v>9291.7999999999993</v>
+        <v>1737</v>
       </c>
       <c r="F74" s="1">
-        <v>1737</v>
+        <v>1737.25</v>
       </c>
       <c r="G74" s="1">
         <v>1737</v>
@@ -2769,82 +2927,82 @@
         <v>1737</v>
       </c>
       <c r="I74" s="1">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+        <v>9291.7999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>1179</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
+        <v>802</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1045</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1045</v>
+      </c>
+      <c r="F75" s="1">
         <v>1045.25</v>
       </c>
-      <c r="D75" s="1">
+      <c r="G75" s="1">
         <v>1045.3333333333333</v>
       </c>
-      <c r="E75" s="1">
+      <c r="H75" s="1">
+        <v>1045.3333333333333</v>
+      </c>
+      <c r="I75" s="1">
         <v>5590.8</v>
       </c>
-      <c r="F75" s="1">
-        <v>1045.3333333333333</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1045</v>
-      </c>
-      <c r="H75" s="1">
-        <v>1045</v>
-      </c>
-      <c r="I75" s="1">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>402</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
+        <v>273.5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>356</v>
+      </c>
+      <c r="E76" s="1">
+        <v>356</v>
+      </c>
+      <c r="F76" s="1">
         <v>356.5</v>
       </c>
-      <c r="D76" s="1">
+      <c r="G76" s="1">
         <v>356.33333333333331</v>
       </c>
-      <c r="E76" s="1">
+      <c r="H76" s="1">
+        <v>356.33333333333331</v>
+      </c>
+      <c r="I76" s="1">
         <v>1906.4</v>
       </c>
-      <c r="F76" s="1">
-        <v>356.33333333333331</v>
-      </c>
-      <c r="G76" s="1">
-        <v>356</v>
-      </c>
-      <c r="H76" s="1">
-        <v>356</v>
-      </c>
-      <c r="I76" s="1">
-        <v>273.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>1517</v>
       </c>
-      <c r="C77" s="1">
-        <v>1345</v>
+      <c r="C77" s="3">
+        <v>1032.5</v>
       </c>
       <c r="D77" s="1">
         <v>1345</v>
       </c>
       <c r="E77" s="1">
-        <v>7194.6</v>
+        <v>1345</v>
       </c>
       <c r="F77" s="1">
         <v>1345</v>
@@ -2856,53 +3014,53 @@
         <v>1345</v>
       </c>
       <c r="I77" s="1">
-        <v>1032.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+        <v>7194.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>798</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
+        <v>543</v>
+      </c>
+      <c r="D78" s="1">
+        <v>708</v>
+      </c>
+      <c r="E78" s="1">
+        <v>708</v>
+      </c>
+      <c r="F78" s="1">
         <v>707.5</v>
       </c>
-      <c r="D78" s="1">
+      <c r="G78" s="1">
         <v>707.66666666666663</v>
       </c>
-      <c r="E78" s="1">
+      <c r="H78" s="1">
+        <v>707.66666666666663</v>
+      </c>
+      <c r="I78" s="1">
         <v>3784.8</v>
       </c>
-      <c r="F78" s="1">
-        <v>707.66666666666663</v>
-      </c>
-      <c r="G78" s="1">
-        <v>708</v>
-      </c>
-      <c r="H78" s="1">
-        <v>708</v>
-      </c>
-      <c r="I78" s="1">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>1273</v>
       </c>
-      <c r="C79" s="1">
-        <v>1129</v>
+      <c r="C79" s="3">
+        <v>866.5</v>
       </c>
       <c r="D79" s="1">
         <v>1129</v>
       </c>
       <c r="E79" s="1">
-        <v>6039.2</v>
+        <v>1129</v>
       </c>
       <c r="F79" s="1">
         <v>1129</v>
@@ -2914,53 +3072,53 @@
         <v>1129</v>
       </c>
       <c r="I79" s="1">
-        <v>866.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+        <v>6039.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>1248</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="3">
+        <v>849.5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1107</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1107</v>
+      </c>
+      <c r="F80" s="1">
         <v>1106.75</v>
       </c>
-      <c r="D80" s="1">
+      <c r="G80" s="1">
         <v>1106.6666666666667</v>
       </c>
-      <c r="E80" s="1">
+      <c r="H80" s="1">
+        <v>1106.6666666666667</v>
+      </c>
+      <c r="I80" s="1">
         <v>5919.4</v>
       </c>
-      <c r="F80" s="1">
-        <v>1106.6666666666667</v>
-      </c>
-      <c r="G80" s="1">
-        <v>1107</v>
-      </c>
-      <c r="H80" s="1">
-        <v>1107</v>
-      </c>
-      <c r="I80" s="1">
-        <v>849.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="1">
         <v>2029</v>
       </c>
-      <c r="C81" s="1">
-        <v>1799</v>
+      <c r="C81" s="3">
+        <v>1380.5</v>
       </c>
       <c r="D81" s="1">
         <v>1799</v>
       </c>
       <c r="E81" s="1">
-        <v>9622.7999999999993</v>
+        <v>1799</v>
       </c>
       <c r="F81" s="1">
         <v>1799</v>
@@ -2972,343 +3130,343 @@
         <v>1799</v>
       </c>
       <c r="I81" s="1">
-        <v>1380.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+        <v>9622.7999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>2097</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
+        <v>1426.5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1859</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1859</v>
+      </c>
+      <c r="F82" s="1">
         <v>1858.75</v>
       </c>
-      <c r="D82" s="1">
+      <c r="G82" s="1">
         <v>1858.6666666666667</v>
       </c>
-      <c r="E82" s="1">
+      <c r="H82" s="1">
+        <v>1858.6666666666667</v>
+      </c>
+      <c r="I82" s="1">
         <v>9942.4</v>
       </c>
-      <c r="F82" s="1">
-        <v>1858.6666666666667</v>
-      </c>
-      <c r="G82" s="1">
-        <v>1859</v>
-      </c>
-      <c r="H82" s="1">
-        <v>1859</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1426.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>2027</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
+        <v>1379</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1797</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1797</v>
+      </c>
+      <c r="F83" s="1">
         <v>1796.75</v>
       </c>
-      <c r="D83" s="1">
+      <c r="G83" s="1">
         <v>1796.6666666666667</v>
       </c>
-      <c r="E83" s="1">
+      <c r="H83" s="1">
+        <v>1796.6666666666667</v>
+      </c>
+      <c r="I83" s="1">
         <v>9610.4</v>
       </c>
-      <c r="F83" s="1">
-        <v>1796.6666666666667</v>
-      </c>
-      <c r="G83" s="1">
-        <v>1797</v>
-      </c>
-      <c r="H83" s="1">
-        <v>1797</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>787</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
+        <v>535</v>
+      </c>
+      <c r="D84" s="1">
+        <v>697</v>
+      </c>
+      <c r="E84" s="1">
+        <v>697</v>
+      </c>
+      <c r="F84" s="1">
         <v>697.25</v>
       </c>
-      <c r="D84" s="1">
+      <c r="G84" s="1">
         <v>697.33333333333337</v>
       </c>
-      <c r="E84" s="1">
+      <c r="H84" s="1">
+        <v>697.33333333333337</v>
+      </c>
+      <c r="I84" s="1">
         <v>3730.2</v>
       </c>
-      <c r="F84" s="1">
-        <v>697.33333333333337</v>
-      </c>
-      <c r="G84" s="1">
-        <v>697</v>
-      </c>
-      <c r="H84" s="1">
-        <v>697</v>
-      </c>
-      <c r="I84" s="1">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1">
         <v>1411</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
+        <v>959.5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1251</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1251</v>
+      </c>
+      <c r="F85" s="1">
         <v>1250.5</v>
       </c>
-      <c r="D85" s="1">
+      <c r="G85" s="1">
         <v>1250.6666666666667</v>
       </c>
-      <c r="E85" s="1">
+      <c r="H85" s="1">
+        <v>1250.6666666666667</v>
+      </c>
+      <c r="I85" s="1">
         <v>6689.2</v>
       </c>
-      <c r="F85" s="1">
-        <v>1250.6666666666667</v>
-      </c>
-      <c r="G85" s="1">
-        <v>1251</v>
-      </c>
-      <c r="H85" s="1">
-        <v>1251</v>
-      </c>
-      <c r="I85" s="1">
-        <v>959.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="1">
         <v>443</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
+        <v>302</v>
+      </c>
+      <c r="D86" s="1">
+        <v>393</v>
+      </c>
+      <c r="E86" s="1">
+        <v>393</v>
+      </c>
+      <c r="F86" s="1">
         <v>393.25</v>
       </c>
-      <c r="D86" s="1">
+      <c r="G86" s="1">
         <v>393.33333333333331</v>
       </c>
-      <c r="E86" s="1">
+      <c r="H86" s="1">
+        <v>393.33333333333331</v>
+      </c>
+      <c r="I86" s="1">
         <v>2103.1999999999998</v>
       </c>
-      <c r="F86" s="1">
-        <v>393.33333333333331</v>
-      </c>
-      <c r="G86" s="1">
-        <v>393</v>
-      </c>
-      <c r="H86" s="1">
-        <v>393</v>
-      </c>
-      <c r="I86" s="1">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="1">
         <v>596</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
+        <v>405.5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>528</v>
+      </c>
+      <c r="E87" s="1">
+        <v>528</v>
+      </c>
+      <c r="F87" s="1">
         <v>528.5</v>
       </c>
-      <c r="D87" s="1">
+      <c r="G87" s="1">
         <v>528.33333333333337</v>
       </c>
-      <c r="E87" s="1">
+      <c r="H87" s="1">
+        <v>528.33333333333337</v>
+      </c>
+      <c r="I87" s="1">
         <v>2826.6</v>
       </c>
-      <c r="F87" s="1">
-        <v>528.33333333333337</v>
-      </c>
-      <c r="G87" s="1">
-        <v>528</v>
-      </c>
-      <c r="H87" s="1">
-        <v>528</v>
-      </c>
-      <c r="I87" s="1">
-        <v>405.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>1074</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
+        <v>731</v>
+      </c>
+      <c r="D88" s="1">
+        <v>952</v>
+      </c>
+      <c r="E88" s="1">
+        <v>952</v>
+      </c>
+      <c r="F88" s="1">
         <v>952.5</v>
       </c>
-      <c r="D88" s="1">
+      <c r="G88" s="1">
         <v>952.33333333333337</v>
       </c>
-      <c r="E88" s="1">
+      <c r="H88" s="1">
+        <v>952.33333333333337</v>
+      </c>
+      <c r="I88" s="1">
         <v>5094.6000000000004</v>
       </c>
-      <c r="F88" s="1">
-        <v>952.33333333333337</v>
-      </c>
-      <c r="G88" s="1">
-        <v>952</v>
-      </c>
-      <c r="H88" s="1">
-        <v>952</v>
-      </c>
-      <c r="I88" s="1">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>2934</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="3">
+        <v>1996.5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2602</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2602</v>
+      </c>
+      <c r="F89" s="1">
         <v>2601.5</v>
       </c>
-      <c r="D89" s="1">
+      <c r="G89" s="1">
         <v>2601.6666666666665</v>
       </c>
-      <c r="E89" s="1">
+      <c r="H89" s="1">
+        <v>2601.6666666666665</v>
+      </c>
+      <c r="I89" s="1">
         <v>13915.2</v>
       </c>
-      <c r="F89" s="1">
-        <v>2601.6666666666665</v>
-      </c>
-      <c r="G89" s="1">
-        <v>2602</v>
-      </c>
-      <c r="H89" s="1">
-        <v>2602</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1996.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="1">
         <v>2559</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
+        <v>1741</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2269</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2269</v>
+      </c>
+      <c r="F90" s="1">
         <v>2268.75</v>
       </c>
-      <c r="D90" s="1">
+      <c r="G90" s="1">
         <v>2268.6666666666665</v>
       </c>
-      <c r="E90" s="1">
+      <c r="H90" s="1">
+        <v>2268.6666666666665</v>
+      </c>
+      <c r="I90" s="1">
         <v>12135.4</v>
       </c>
-      <c r="F90" s="1">
-        <v>2268.6666666666665</v>
-      </c>
-      <c r="G90" s="1">
-        <v>2269</v>
-      </c>
-      <c r="H90" s="1">
-        <v>2269</v>
-      </c>
-      <c r="I90" s="1">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="1">
         <v>672</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="3">
+        <v>457</v>
+      </c>
+      <c r="D91" s="1">
+        <v>596</v>
+      </c>
+      <c r="E91" s="1">
+        <v>596</v>
+      </c>
+      <c r="F91" s="1">
         <v>595.75</v>
       </c>
-      <c r="D91" s="1">
+      <c r="G91" s="1">
         <v>595.66666666666663</v>
       </c>
-      <c r="E91" s="1">
+      <c r="H91" s="1">
+        <v>595.66666666666663</v>
+      </c>
+      <c r="I91" s="1">
         <v>3186.2</v>
       </c>
-      <c r="F91" s="1">
-        <v>595.66666666666663</v>
-      </c>
-      <c r="G91" s="1">
-        <v>596</v>
-      </c>
-      <c r="H91" s="1">
-        <v>596</v>
-      </c>
-      <c r="I91" s="1">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>846</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="3">
+        <v>576</v>
+      </c>
+      <c r="D92" s="1">
+        <v>750</v>
+      </c>
+      <c r="E92" s="1">
+        <v>750</v>
+      </c>
+      <c r="F92" s="1">
         <v>750.25</v>
       </c>
-      <c r="D92" s="1">
+      <c r="G92" s="1">
         <v>750.33333333333337</v>
       </c>
-      <c r="E92" s="1">
+      <c r="H92" s="1">
+        <v>750.33333333333337</v>
+      </c>
+      <c r="I92" s="1">
         <v>4013.2</v>
       </c>
-      <c r="F92" s="1">
-        <v>750.33333333333337</v>
-      </c>
-      <c r="G92" s="1">
-        <v>750</v>
-      </c>
-      <c r="H92" s="1">
-        <v>750</v>
-      </c>
-      <c r="I92" s="1">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1">
         <v>780</v>
       </c>
-      <c r="C93" s="1">
-        <v>691</v>
+      <c r="C93" s="3">
+        <v>530.5</v>
       </c>
       <c r="D93" s="1">
         <v>691</v>
       </c>
       <c r="E93" s="1">
-        <v>3696.6</v>
+        <v>691</v>
       </c>
       <c r="F93" s="1">
         <v>691</v>
@@ -3320,24 +3478,24 @@
         <v>691</v>
       </c>
       <c r="I93" s="1">
-        <v>530.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+        <v>3696.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>924</v>
       </c>
-      <c r="C94" s="1">
-        <v>819</v>
+      <c r="C94" s="3">
+        <v>628.5</v>
       </c>
       <c r="D94" s="1">
         <v>819</v>
       </c>
       <c r="E94" s="1">
-        <v>4380.8</v>
+        <v>819</v>
       </c>
       <c r="F94" s="1">
         <v>819</v>
@@ -3349,27 +3507,27 @@
         <v>819</v>
       </c>
       <c r="I94" s="1">
-        <v>628.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+        <v>4380.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="1">
         <v>1083</v>
       </c>
-      <c r="C95" s="1">
-        <v>960.25</v>
+      <c r="C95" s="3">
+        <v>737</v>
       </c>
       <c r="D95" s="1">
         <v>960</v>
       </c>
       <c r="E95" s="1">
-        <v>5135.6000000000004</v>
+        <v>960</v>
       </c>
       <c r="F95" s="1">
-        <v>960</v>
+        <v>960.25</v>
       </c>
       <c r="G95" s="1">
         <v>960</v>
@@ -3378,343 +3536,343 @@
         <v>960</v>
       </c>
       <c r="I95" s="1">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+        <v>5135.6000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>610</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
+        <v>415</v>
+      </c>
+      <c r="D96" s="1">
+        <v>541</v>
+      </c>
+      <c r="E96" s="1">
+        <v>541</v>
+      </c>
+      <c r="F96" s="1">
         <v>540.75</v>
       </c>
-      <c r="D96" s="1">
+      <c r="G96" s="1">
         <v>540.66666666666663</v>
       </c>
-      <c r="E96" s="1">
+      <c r="H96" s="1">
+        <v>540.66666666666663</v>
+      </c>
+      <c r="I96" s="1">
         <v>2892</v>
       </c>
-      <c r="F96" s="1">
-        <v>540.66666666666663</v>
-      </c>
-      <c r="G96" s="1">
-        <v>541</v>
-      </c>
-      <c r="H96" s="1">
-        <v>541</v>
-      </c>
-      <c r="I96" s="1">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>1701</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="3">
+        <v>1157.5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1508</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1508</v>
+      </c>
+      <c r="F97" s="1">
         <v>1508.5</v>
       </c>
-      <c r="D97" s="1">
+      <c r="G97" s="1">
         <v>1508.3333333333333</v>
       </c>
-      <c r="E97" s="1">
+      <c r="H97" s="1">
+        <v>1508.3333333333333</v>
+      </c>
+      <c r="I97" s="1">
         <v>8068.4</v>
       </c>
-      <c r="F97" s="1">
-        <v>1508.3333333333333</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1508</v>
-      </c>
-      <c r="H97" s="1">
-        <v>1508</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1157.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>609</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
+        <v>414</v>
+      </c>
+      <c r="D98" s="1">
+        <v>540</v>
+      </c>
+      <c r="E98" s="1">
+        <v>540</v>
+      </c>
+      <c r="F98" s="1">
         <v>539.5</v>
       </c>
-      <c r="D98" s="1">
+      <c r="G98" s="1">
         <v>539.66666666666663</v>
       </c>
-      <c r="E98" s="1">
+      <c r="H98" s="1">
+        <v>539.66666666666663</v>
+      </c>
+      <c r="I98" s="1">
         <v>2885.8</v>
       </c>
-      <c r="F98" s="1">
-        <v>539.66666666666663</v>
-      </c>
-      <c r="G98" s="1">
-        <v>540</v>
-      </c>
-      <c r="H98" s="1">
-        <v>540</v>
-      </c>
-      <c r="I98" s="1">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="1">
         <v>287</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
+        <v>195.5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>255</v>
+      </c>
+      <c r="E99" s="1">
+        <v>255</v>
+      </c>
+      <c r="F99" s="1">
         <v>254.75</v>
       </c>
-      <c r="D99" s="1">
+      <c r="G99" s="1">
         <v>254.66666666666666</v>
       </c>
-      <c r="E99" s="1">
+      <c r="H99" s="1">
+        <v>254.66666666666666</v>
+      </c>
+      <c r="I99" s="1">
         <v>1362.4</v>
       </c>
-      <c r="F99" s="1">
-        <v>254.66666666666666</v>
-      </c>
-      <c r="G99" s="1">
-        <v>255</v>
-      </c>
-      <c r="H99" s="1">
-        <v>255</v>
-      </c>
-      <c r="I99" s="1">
-        <v>195.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>2075</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="3">
+        <v>1411.5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1839</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1839</v>
+      </c>
+      <c r="F100" s="1">
         <v>1839.25</v>
       </c>
-      <c r="D100" s="1">
+      <c r="G100" s="1">
         <v>1839.3333333333333</v>
       </c>
-      <c r="E100" s="1">
+      <c r="H100" s="1">
+        <v>1839.3333333333333</v>
+      </c>
+      <c r="I100" s="1">
         <v>9838.4</v>
       </c>
-      <c r="F100" s="1">
-        <v>1839.3333333333333</v>
-      </c>
-      <c r="G100" s="1">
-        <v>1839</v>
-      </c>
-      <c r="H100" s="1">
-        <v>1839</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1411.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="1">
         <v>572</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
+        <v>389.5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>508</v>
+      </c>
+      <c r="E101" s="1">
+        <v>508</v>
+      </c>
+      <c r="F101" s="1">
         <v>507.5</v>
       </c>
-      <c r="D101" s="1">
+      <c r="G101" s="1">
         <v>507.66666666666669</v>
       </c>
-      <c r="E101" s="1">
+      <c r="H101" s="1">
+        <v>507.66666666666669</v>
+      </c>
+      <c r="I101" s="1">
         <v>2714.6</v>
       </c>
-      <c r="F101" s="1">
-        <v>507.66666666666669</v>
-      </c>
-      <c r="G101" s="1">
-        <v>508</v>
-      </c>
-      <c r="H101" s="1">
-        <v>508</v>
-      </c>
-      <c r="I101" s="1">
-        <v>389.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="1">
         <v>447</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="3">
+        <v>304</v>
+      </c>
+      <c r="D102" s="1">
+        <v>396</v>
+      </c>
+      <c r="E102" s="1">
+        <v>396</v>
+      </c>
+      <c r="F102" s="1">
         <v>396.25</v>
       </c>
-      <c r="D102" s="1">
+      <c r="G102" s="1">
         <v>396.33333333333331</v>
       </c>
-      <c r="E102" s="1">
+      <c r="H102" s="1">
+        <v>396.33333333333331</v>
+      </c>
+      <c r="I102" s="1">
         <v>2119.8000000000002</v>
       </c>
-      <c r="F102" s="1">
-        <v>396.33333333333331</v>
-      </c>
-      <c r="G102" s="1">
-        <v>396</v>
-      </c>
-      <c r="H102" s="1">
-        <v>396</v>
-      </c>
-      <c r="I102" s="1">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="1">
         <v>1645</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="3">
+        <v>1119.5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1458</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1458</v>
+      </c>
+      <c r="F103" s="1">
         <v>1458.5</v>
       </c>
-      <c r="D103" s="1">
+      <c r="G103" s="1">
         <v>1458.3333333333333</v>
       </c>
-      <c r="E103" s="1">
+      <c r="H103" s="1">
+        <v>1458.3333333333333</v>
+      </c>
+      <c r="I103" s="1">
         <v>7801</v>
       </c>
-      <c r="F103" s="1">
-        <v>1458.3333333333333</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1458</v>
-      </c>
-      <c r="H103" s="1">
-        <v>1458</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1119.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="1">
         <v>763</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="3">
+        <v>519.5</v>
+      </c>
+      <c r="D104" s="1">
+        <v>677</v>
+      </c>
+      <c r="E104" s="1">
+        <v>677</v>
+      </c>
+      <c r="F104" s="1">
         <v>676.75</v>
       </c>
-      <c r="D104" s="1">
+      <c r="G104" s="1">
         <v>676.66666666666663</v>
       </c>
-      <c r="E104" s="1">
+      <c r="H104" s="1">
+        <v>676.66666666666663</v>
+      </c>
+      <c r="I104" s="1">
         <v>3619.6</v>
       </c>
-      <c r="F104" s="1">
-        <v>676.66666666666663</v>
-      </c>
-      <c r="G104" s="1">
-        <v>677</v>
-      </c>
-      <c r="H104" s="1">
-        <v>677</v>
-      </c>
-      <c r="I104" s="1">
-        <v>519.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="1">
         <v>1659</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="3">
+        <v>1128.5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1471</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1471</v>
+      </c>
+      <c r="F105" s="1">
         <v>1470.75</v>
       </c>
-      <c r="D105" s="1">
+      <c r="G105" s="1">
         <v>1470.6666666666667</v>
       </c>
-      <c r="E105" s="1">
+      <c r="H105" s="1">
+        <v>1470.6666666666667</v>
+      </c>
+      <c r="I105" s="1">
         <v>7867</v>
       </c>
-      <c r="F105" s="1">
-        <v>1470.6666666666667</v>
-      </c>
-      <c r="G105" s="1">
-        <v>1471</v>
-      </c>
-      <c r="H105" s="1">
-        <v>1471</v>
-      </c>
-      <c r="I105" s="1">
-        <v>1128.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="1">
         <v>2214</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="3">
+        <v>1506.5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1963</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1963</v>
+      </c>
+      <c r="F106" s="1">
         <v>1962.75</v>
       </c>
-      <c r="D106" s="1">
+      <c r="G106" s="1">
         <v>1962.6666666666667</v>
       </c>
-      <c r="E106" s="1">
+      <c r="H106" s="1">
+        <v>1962.6666666666667</v>
+      </c>
+      <c r="I106" s="1">
         <v>10498.6</v>
       </c>
-      <c r="F106" s="1">
-        <v>1962.6666666666667</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1963</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1963</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1506.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="1">
         <v>554</v>
       </c>
-      <c r="C107" s="1">
-        <v>491</v>
+      <c r="C107" s="3">
+        <v>377</v>
       </c>
       <c r="D107" s="1">
         <v>491</v>
       </c>
       <c r="E107" s="1">
-        <v>2626.2</v>
+        <v>491</v>
       </c>
       <c r="F107" s="1">
         <v>491</v>
@@ -3726,82 +3884,82 @@
         <v>491</v>
       </c>
       <c r="I107" s="1">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+        <v>2626.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>1349</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="3">
+        <v>918</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1196</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1196</v>
+      </c>
+      <c r="F108" s="1">
         <v>1196.25</v>
       </c>
-      <c r="D108" s="1">
+      <c r="G108" s="1">
         <v>1196.3333333333333</v>
       </c>
-      <c r="E108" s="1">
+      <c r="H108" s="1">
+        <v>1196.3333333333333</v>
+      </c>
+      <c r="I108" s="1">
         <v>6399</v>
       </c>
-      <c r="F108" s="1">
-        <v>1196.3333333333333</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1196</v>
-      </c>
-      <c r="H108" s="1">
-        <v>1196</v>
-      </c>
-      <c r="I108" s="1">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="1">
         <v>1083</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="3">
+        <v>737</v>
+      </c>
+      <c r="D109" s="1">
+        <v>960</v>
+      </c>
+      <c r="E109" s="1">
+        <v>960</v>
+      </c>
+      <c r="F109" s="1">
         <v>960.25</v>
       </c>
-      <c r="D109" s="1">
+      <c r="G109" s="1">
         <v>960.33333333333337</v>
       </c>
-      <c r="E109" s="1">
+      <c r="H109" s="1">
+        <v>960.33333333333337</v>
+      </c>
+      <c r="I109" s="1">
         <v>5136.2</v>
       </c>
-      <c r="F109" s="1">
-        <v>960.33333333333337</v>
-      </c>
-      <c r="G109" s="1">
-        <v>960</v>
-      </c>
-      <c r="H109" s="1">
-        <v>960</v>
-      </c>
-      <c r="I109" s="1">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1">
         <v>1226</v>
       </c>
-      <c r="C110" s="1">
-        <v>1087</v>
+      <c r="C110" s="3">
+        <v>834</v>
       </c>
       <c r="D110" s="1">
         <v>1087</v>
       </c>
       <c r="E110" s="1">
-        <v>5813.6</v>
+        <v>1087</v>
       </c>
       <c r="F110" s="1">
         <v>1087</v>
@@ -3813,169 +3971,169 @@
         <v>1087</v>
       </c>
       <c r="I110" s="1">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+        <v>5813.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="1">
         <v>889</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="3">
+        <v>605</v>
+      </c>
+      <c r="D111" s="1">
+        <v>788</v>
+      </c>
+      <c r="E111" s="1">
+        <v>788</v>
+      </c>
+      <c r="F111" s="1">
         <v>788.25</v>
       </c>
-      <c r="D111" s="1">
+      <c r="G111" s="1">
         <v>788.33333333333337</v>
       </c>
-      <c r="E111" s="1">
+      <c r="H111" s="1">
+        <v>788.33333333333337</v>
+      </c>
+      <c r="I111" s="1">
         <v>4216</v>
       </c>
-      <c r="F111" s="1">
-        <v>788.33333333333337</v>
-      </c>
-      <c r="G111" s="1">
-        <v>788</v>
-      </c>
-      <c r="H111" s="1">
-        <v>788</v>
-      </c>
-      <c r="I111" s="1">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="1">
         <v>1039</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
+        <v>707.5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>922</v>
+      </c>
+      <c r="E112" s="1">
+        <v>922</v>
+      </c>
+      <c r="F112" s="1">
         <v>921.5</v>
       </c>
-      <c r="D112" s="1">
+      <c r="G112" s="1">
         <v>921.66666666666663</v>
       </c>
-      <c r="E112" s="1">
+      <c r="H112" s="1">
+        <v>921.66666666666663</v>
+      </c>
+      <c r="I112" s="1">
         <v>4929.3999999999996</v>
       </c>
-      <c r="F112" s="1">
-        <v>921.66666666666663</v>
-      </c>
-      <c r="G112" s="1">
-        <v>922</v>
-      </c>
-      <c r="H112" s="1">
-        <v>922</v>
-      </c>
-      <c r="I112" s="1">
-        <v>707.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="1">
         <v>1273</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="3">
+        <v>866</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1128</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1128</v>
+      </c>
+      <c r="F113" s="1">
         <v>1128.5</v>
       </c>
-      <c r="D113" s="1">
+      <c r="G113" s="1">
         <v>1128.3333333333333</v>
       </c>
-      <c r="E113" s="1">
+      <c r="H113" s="1">
+        <v>1128.3333333333333</v>
+      </c>
+      <c r="I113" s="1">
         <v>6035.8</v>
       </c>
-      <c r="F113" s="1">
-        <v>1128.3333333333333</v>
-      </c>
-      <c r="G113" s="1">
-        <v>1128</v>
-      </c>
-      <c r="H113" s="1">
-        <v>1128</v>
-      </c>
-      <c r="I113" s="1">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="1">
         <v>2217</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="3">
+        <v>1508.5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1966</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1966</v>
+      </c>
+      <c r="F114" s="1">
         <v>1965.75</v>
       </c>
-      <c r="D114" s="1">
+      <c r="G114" s="1">
         <v>1965.6666666666667</v>
       </c>
-      <c r="E114" s="1">
+      <c r="H114" s="1">
+        <v>1965.6666666666667</v>
+      </c>
+      <c r="I114" s="1">
         <v>10514.4</v>
       </c>
-      <c r="F114" s="1">
-        <v>1965.6666666666667</v>
-      </c>
-      <c r="G114" s="1">
-        <v>1966</v>
-      </c>
-      <c r="H114" s="1">
-        <v>1966</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1508.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>8565</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="3">
+        <v>5827.5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>7593</v>
+      </c>
+      <c r="E115" s="1">
+        <v>7593</v>
+      </c>
+      <c r="F115" s="1">
         <v>7593.25</v>
       </c>
-      <c r="D115" s="1">
+      <c r="G115" s="1">
         <v>7593.333333333333</v>
       </c>
-      <c r="E115" s="1">
+      <c r="H115" s="1">
+        <v>7593.333333333333</v>
+      </c>
+      <c r="I115" s="1">
         <v>40615.4</v>
       </c>
-      <c r="F115" s="1">
-        <v>7593.333333333333</v>
-      </c>
-      <c r="G115" s="1">
-        <v>7593</v>
-      </c>
-      <c r="H115" s="1">
-        <v>7593</v>
-      </c>
-      <c r="I115" s="1">
-        <v>5827.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>2079</v>
       </c>
-      <c r="C116" s="1">
-        <v>1843</v>
+      <c r="C116" s="3">
+        <v>1414.5</v>
       </c>
       <c r="D116" s="1">
         <v>1843</v>
       </c>
       <c r="E116" s="1">
-        <v>9858.4</v>
+        <v>1843</v>
       </c>
       <c r="F116" s="1">
         <v>1843</v>
@@ -3987,39 +4145,43 @@
         <v>1843</v>
       </c>
       <c r="I116" s="1">
-        <v>1414.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+        <v>9858.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="5">
         <v>1029</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="6">
+        <v>700.5</v>
+      </c>
+      <c r="D117" s="5">
+        <v>913</v>
+      </c>
+      <c r="E117" s="5">
+        <v>913</v>
+      </c>
+      <c r="F117" s="5">
         <v>912.75</v>
       </c>
-      <c r="D117" s="1">
+      <c r="G117" s="5">
         <v>912.66666666666663</v>
       </c>
-      <c r="E117" s="1">
+      <c r="H117" s="5">
+        <v>912.66666666666663</v>
+      </c>
+      <c r="I117" s="5">
         <v>4881.8</v>
       </c>
-      <c r="F117" s="1">
-        <v>912.66666666666663</v>
-      </c>
-      <c r="G117" s="1">
-        <v>913</v>
-      </c>
-      <c r="H117" s="1">
-        <v>913</v>
-      </c>
-      <c r="I117" s="1">
-        <v>700.5</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>